--- a/thesis/Chapters/01Database.xlsx
+++ b/thesis/Chapters/01Database.xlsx
@@ -796,7 +796,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="194">
   <si>
     <t>city</t>
   </si>
@@ -1128,25 +1128,7 @@
     <t>Step 16</t>
   </si>
   <si>
-    <t>13 variables</t>
-  </si>
-  <si>
-    <t>21 variables</t>
-  </si>
-  <si>
-    <t>26 variables</t>
-  </si>
-  <si>
-    <t>8 variables</t>
-  </si>
-  <si>
-    <t>2 variables</t>
-  </si>
-  <si>
     <t>Step 17</t>
-  </si>
-  <si>
-    <t>medall (services + med) append</t>
   </si>
   <si>
     <t>Step 18</t>
@@ -1306,12 +1288,6 @@
     <t>Step 24</t>
   </si>
   <si>
-    <t>all02 (step 23 - remove a few variables)</t>
-  </si>
-  <si>
-    <t>Disease category (Dr. Tillu)</t>
-  </si>
-  <si>
     <t>discat</t>
   </si>
   <si>
@@ -1400,6 +1376,31 @@
   </si>
   <si>
     <t>all_met_rmsd (step 28)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medall (services + med) </t>
+  </si>
+  <si>
+    <t>Staged data
+Reference files</t>
+  </si>
+  <si>
+    <t>base01_op (all OP data)</t>
+  </si>
+  <si>
+    <t>base01_ip (all IP data)</t>
+  </si>
+  <si>
+    <t>all02 (all drop variables)</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>baseage</t>
+  </si>
+  <si>
+    <t>Disease group (Dr. Tillu)</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1620,8 +1621,14 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3261,13 +3268,13 @@
   <sheetPr>
     <outlinePr applyStyles="1" summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BP52"/>
+  <dimension ref="A1:BO49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3275,8 +3282,7 @@
     <col min="1" max="1" width="5.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="67" width="2.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="16384" width="8.88671875" style="2"/>
+    <col min="68" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" s="1" customFormat="1" ht="73.8" x14ac:dyDescent="0.25">
@@ -3481,6 +3487,9 @@
       </c>
     </row>
     <row r="2" spans="1:67" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3551,6 +3560,9 @@
       <c r="BO2" s="7"/>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3621,6 +3633,9 @@
       <c r="BO3" s="7"/>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
@@ -3691,6 +3706,9 @@
       <c r="BO4" s="7"/>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3761,6 +3779,9 @@
       <c r="BO5" s="7"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
@@ -3831,6 +3852,9 @@
       <c r="BO6" s="7"/>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
+        <v>6</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
@@ -3901,6 +3925,9 @@
       <c r="BO7" s="7"/>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
+        <v>7</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
@@ -3971,6 +3998,9 @@
       <c r="BO8" s="7"/>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
+        <v>8</v>
+      </c>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -4041,6 +4071,9 @@
       <c r="BO9" s="7"/>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <v>9</v>
+      </c>
       <c r="B10" s="4" t="s">
         <v>48</v>
       </c>
@@ -4111,6 +4144,9 @@
       <c r="BO10" s="7"/>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
+        <v>10</v>
+      </c>
       <c r="B11" s="4" t="s">
         <v>49</v>
       </c>
@@ -4181,6 +4217,9 @@
       <c r="BO11" s="7"/>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <v>11</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>56</v>
       </c>
@@ -4251,6 +4290,9 @@
       <c r="BO12" s="7"/>
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
+        <v>12</v>
+      </c>
       <c r="B13" s="7" t="s">
         <v>60</v>
       </c>
@@ -4321,6 +4363,9 @@
       <c r="BO13" s="7"/>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
+        <v>13</v>
+      </c>
       <c r="B14" s="7" t="s">
         <v>61</v>
       </c>
@@ -5255,7 +5300,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>84</v>
       </c>
@@ -5283,7 +5328,7 @@
       <c r="AE33" s="14"/>
       <c r="AF33" s="14"/>
     </row>
-    <row r="34" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>84</v>
       </c>
@@ -5321,7 +5366,7 @@
       <c r="AE34" s="14"/>
       <c r="AF34" s="14"/>
     </row>
-    <row r="35" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>86</v>
       </c>
@@ -5336,7 +5381,7 @@
       <c r="AJ35" s="5"/>
       <c r="AK35" s="5"/>
     </row>
-    <row r="36" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>86</v>
       </c>
@@ -5376,7 +5421,7 @@
       <c r="AE36" s="14"/>
       <c r="AF36" s="14"/>
     </row>
-    <row r="37" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>86</v>
       </c>
@@ -5419,7 +5464,7 @@
       <c r="AJ37" s="14"/>
       <c r="AK37" s="14"/>
     </row>
-    <row r="38" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>91</v>
       </c>
@@ -5491,11 +5536,8 @@
       <c r="BM38" s="24"/>
       <c r="BN38" s="24"/>
       <c r="BO38" s="24"/>
-      <c r="BP38" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:68" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>94</v>
       </c>
@@ -5546,7 +5588,7 @@
       <c r="AR39" s="5"/>
       <c r="AS39" s="5"/>
     </row>
-    <row r="40" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>95</v>
       </c>
@@ -5569,7 +5611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>95</v>
       </c>
@@ -5622,7 +5664,7 @@
       <c r="AR41" s="5"/>
       <c r="AS41" s="5"/>
     </row>
-    <row r="42" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>95</v>
       </c>
@@ -5694,11 +5736,8 @@
       <c r="BM42" s="24"/>
       <c r="BN42" s="24"/>
       <c r="BO42" s="24"/>
-      <c r="BP42" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:68" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>99</v>
       </c>
@@ -5762,7 +5801,7 @@
       <c r="BE43" s="5"/>
       <c r="BF43" s="5"/>
     </row>
-    <row r="44" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>100</v>
       </c>
@@ -5785,7 +5824,7 @@
       <c r="AD44" s="14"/>
       <c r="AG44" s="14"/>
     </row>
-    <row r="45" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>100</v>
       </c>
@@ -5806,7 +5845,7 @@
       <c r="BE45" s="5"/>
       <c r="BF45" s="5"/>
     </row>
-    <row r="46" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>100</v>
       </c>
@@ -5878,11 +5917,8 @@
       <c r="BM46" s="24"/>
       <c r="BN46" s="24"/>
       <c r="BO46" s="24"/>
-      <c r="BP46" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:68" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>103</v>
       </c>
@@ -5954,11 +5990,8 @@
       <c r="BM47" s="26"/>
       <c r="BN47" s="24"/>
       <c r="BO47" s="24"/>
-      <c r="BP47" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:68" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>108</v>
       </c>
@@ -6030,11 +6063,8 @@
       <c r="BM48" s="26"/>
       <c r="BN48" s="26"/>
       <c r="BO48" s="22"/>
-      <c r="BP48" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:68" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>109</v>
       </c>
@@ -6106,132 +6136,6 @@
       <c r="BM49" s="22"/>
       <c r="BN49" s="22"/>
       <c r="BO49" s="26"/>
-      <c r="BP49" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
-      <c r="AA50" s="2"/>
-      <c r="AB50" s="2"/>
-      <c r="AC50" s="2"/>
-      <c r="AD50" s="2"/>
-      <c r="AE50" s="2"/>
-      <c r="AF50" s="2"/>
-      <c r="AG50" s="2"/>
-      <c r="AH50" s="2"/>
-      <c r="AI50" s="2"/>
-      <c r="AJ50" s="2"/>
-      <c r="AK50" s="2"/>
-      <c r="AL50" s="2"/>
-      <c r="AM50" s="2"/>
-      <c r="AN50" s="2"/>
-      <c r="AO50" s="2"/>
-      <c r="AP50" s="2"/>
-      <c r="AQ50" s="2"/>
-      <c r="AR50" s="2"/>
-      <c r="AS50" s="2"/>
-      <c r="AT50" s="2"/>
-      <c r="AU50" s="2"/>
-      <c r="AV50" s="2"/>
-      <c r="AW50" s="2"/>
-      <c r="AX50" s="2"/>
-      <c r="AY50" s="2"/>
-      <c r="AZ50" s="2"/>
-      <c r="BA50" s="2"/>
-      <c r="BB50" s="2"/>
-      <c r="BC50" s="2"/>
-      <c r="BD50" s="2"/>
-      <c r="BE50" s="2"/>
-      <c r="BF50" s="2"/>
-      <c r="BG50" s="2"/>
-    </row>
-    <row r="51" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="2"/>
-      <c r="AG51" s="2"/>
-      <c r="AH51" s="2"/>
-      <c r="AI51" s="2"/>
-      <c r="AJ51" s="2"/>
-      <c r="AK51" s="2"/>
-      <c r="AL51" s="2"/>
-      <c r="AM51" s="2"/>
-      <c r="AN51" s="2"/>
-      <c r="AO51" s="2"/>
-      <c r="AP51" s="2"/>
-      <c r="AQ51" s="2"/>
-      <c r="AR51" s="2"/>
-      <c r="AS51" s="2"/>
-      <c r="AT51" s="2"/>
-      <c r="AU51" s="2"/>
-      <c r="AV51" s="2"/>
-      <c r="AW51" s="2"/>
-      <c r="AX51" s="2"/>
-      <c r="AY51" s="2"/>
-      <c r="AZ51" s="2"/>
-      <c r="BA51" s="2"/>
-      <c r="BB51" s="2"/>
-      <c r="BC51" s="2"/>
-      <c r="BD51" s="2"/>
-      <c r="BE51" s="2"/>
-      <c r="BF51" s="2"/>
-      <c r="BG51" s="2"/>
-    </row>
-    <row r="52" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="B52" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6245,273 +6149,255 @@
   <sheetPr>
     <outlinePr applyStyles="1" summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BT44"/>
+  <dimension ref="A1:BV45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="BX1" sqref="BX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="40" width="2.5546875" style="21" bestFit="1" customWidth="1"/>
     <col min="41" max="48" width="2.5546875" customWidth="1"/>
     <col min="49" max="72" width="2.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="73" max="16384" width="8.88671875" style="2"/>
+    <col min="73" max="74" width="2.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="75" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" ht="73.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:74" ht="8.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:74" s="1" customFormat="1" ht="73.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP2" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="AQ2" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR2" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="AS2" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT2" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="AU2" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV2" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW2" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX2" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="AY2" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ2" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="BA2" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="BB2" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO1" s="9" t="s">
+      <c r="BC2" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD2" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="BE2" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF2" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG2" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH2" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI2" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="BJ2" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK2" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="BL2" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM2" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN2" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO2" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP2" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="BQ2" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="AP1" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ1" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="AR1" s="30" t="s">
+      <c r="BR2" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="BS2" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="BT2" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="BU2" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="BV2" s="28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="AS1" s="30" t="s">
+      <c r="B3" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="AT1" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="AU1" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV1" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="AW1" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="AX1" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="AY1" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ1" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="BA1" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="BB1" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="BC1" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="BD1" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="BE1" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="BF1" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="BG1" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="BH1" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="BI1" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="BJ1" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="BK1" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="BL1" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="BM1" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="BN1" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="BO1" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="BP1" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="BQ1" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="BR1" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="BS1" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="BT1" s="28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-    </row>
-    <row r="3" spans="1:72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -6527,90 +6413,97 @@
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
       <c r="U3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-    </row>
-    <row r="4" spans="1:72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
-        <v>141</v>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+    </row>
+    <row r="4" spans="1:74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
       <c r="U4" s="14"/>
       <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
       <c r="AC4" s="14"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
-    </row>
-    <row r="5" spans="1:72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+    </row>
+    <row r="5" spans="1:74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
       <c r="B5" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-    </row>
-    <row r="6" spans="1:72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="U5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+    </row>
+    <row r="6" spans="1:74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
       <c r="B6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="AM6" s="14"/>
-      <c r="AN6" s="14"/>
-    </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -6626,58 +6519,13 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
       <c r="AM7" s="14"/>
       <c r="AN7" s="14"/>
-      <c r="AW7" s="7"/>
-      <c r="AX7" s="7"/>
-      <c r="AY7" s="7"/>
-      <c r="AZ7" s="7"/>
-      <c r="BA7" s="7"/>
-      <c r="BB7" s="7"/>
-      <c r="BC7" s="7"/>
-      <c r="BD7" s="7"/>
-      <c r="BE7" s="7"/>
-      <c r="BF7" s="7"/>
-      <c r="BG7" s="7"/>
-      <c r="BH7" s="7"/>
-      <c r="BI7" s="7"/>
-      <c r="BJ7" s="7"/>
-      <c r="BK7" s="7"/>
-      <c r="BL7" s="7"/>
-      <c r="BM7" s="7"/>
-      <c r="BN7" s="7"/>
-      <c r="BO7" s="7"/>
-      <c r="BP7" s="7"/>
-      <c r="BQ7" s="7"/>
-      <c r="BR7" s="7"/>
-      <c r="BS7" s="7"/>
-      <c r="BT7" s="7"/>
-    </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
       <c r="B8" s="7" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -6715,9 +6563,8 @@
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
       <c r="AL8" s="7"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
       <c r="AW8" s="7"/>
       <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
@@ -6743,9 +6590,10 @@
       <c r="BS8" s="7"/>
       <c r="BT8" s="7"/>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
       <c r="B9" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -6785,9 +6633,7 @@
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="29"/>
-      <c r="AQ9" s="29"/>
+      <c r="AO9" s="14"/>
       <c r="AW9" s="7"/>
       <c r="AX9" s="7"/>
       <c r="AY9" s="7"/>
@@ -6811,11 +6657,12 @@
       <c r="BQ9" s="7"/>
       <c r="BR9" s="7"/>
       <c r="BS9" s="7"/>
-      <c r="BT9" s="29"/>
-    </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="BT9" s="7"/>
+    </row>
+    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
       <c r="B10" s="7" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -6853,13 +6700,11 @@
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
       <c r="AL10" s="7"/>
-      <c r="AM10" s="14"/>
+      <c r="AM10" s="7"/>
       <c r="AN10" s="7"/>
-      <c r="AR10" s="29"/>
-      <c r="AS10" s="29"/>
-      <c r="AT10" s="29"/>
-      <c r="AU10" s="29"/>
-      <c r="AV10" s="29"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="29"/>
+      <c r="AQ10" s="29"/>
       <c r="AW10" s="7"/>
       <c r="AX10" s="7"/>
       <c r="AY10" s="7"/>
@@ -6883,10 +6728,13 @@
       <c r="BQ10" s="7"/>
       <c r="BR10" s="7"/>
       <c r="BS10" s="7"/>
-      <c r="BT10" s="7"/>
-    </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
+      <c r="BT10" s="29"/>
+    </row>
+    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -6923,8 +6771,13 @@
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
       <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
+      <c r="AM11" s="14"/>
       <c r="AN11" s="7"/>
+      <c r="AR11" s="29"/>
+      <c r="AS11" s="29"/>
+      <c r="AT11" s="29"/>
+      <c r="AU11" s="29"/>
+      <c r="AV11" s="29"/>
       <c r="AW11" s="7"/>
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
@@ -6950,98 +6803,110 @@
       <c r="BS11" s="7"/>
       <c r="BT11" s="7"/>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="7"/>
+      <c r="BC12" s="7"/>
+      <c r="BD12" s="7"/>
+      <c r="BE12" s="7"/>
+      <c r="BF12" s="7"/>
+      <c r="BG12" s="7"/>
+      <c r="BH12" s="7"/>
+      <c r="BI12" s="7"/>
+      <c r="BJ12" s="7"/>
+      <c r="BK12" s="7"/>
+      <c r="BL12" s="7"/>
+      <c r="BM12" s="7"/>
+      <c r="BN12" s="7"/>
+      <c r="BO12" s="7"/>
+      <c r="BP12" s="7"/>
+      <c r="BQ12" s="7"/>
+      <c r="BR12" s="7"/>
+      <c r="BS12" s="7"/>
+      <c r="BT12" s="7"/>
+    </row>
+    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="AM12" s="14"/>
-      <c r="AN12" s="14"/>
-    </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="AM13" s="14"/>
       <c r="AN13" s="14"/>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="AM14" s="14"/>
       <c r="AN14" s="14"/>
     </row>
-    <row r="15" spans="1:72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="U15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="21"/>
-      <c r="AN15" s="21"/>
-      <c r="AW15" s="29"/>
-      <c r="AX15" s="29"/>
-      <c r="AY15" s="29"/>
-      <c r="AZ15" s="21"/>
-      <c r="BA15" s="21"/>
-      <c r="BB15" s="21"/>
-      <c r="BC15" s="21"/>
-      <c r="BD15" s="21"/>
-      <c r="BE15" s="21"/>
-      <c r="BF15" s="21"/>
-      <c r="BG15" s="21"/>
-      <c r="BH15" s="21"/>
-      <c r="BI15" s="21"/>
-      <c r="BJ15" s="21"/>
-      <c r="BK15" s="21"/>
-      <c r="BL15" s="21"/>
-      <c r="BM15" s="21"/>
-      <c r="BN15" s="21"/>
-      <c r="BO15" s="21"/>
-      <c r="BP15" s="21"/>
-      <c r="BQ15" s="21"/>
-      <c r="BR15" s="21"/>
-      <c r="BS15" s="21"/>
-      <c r="BT15" s="21"/>
-    </row>
-    <row r="16" spans="1:72" customFormat="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+    </row>
+    <row r="16" spans="1:74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+        <v>126</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -7054,35 +6919,16 @@
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="12">
-        <v>1</v>
-      </c>
-      <c r="AW16" s="21"/>
-      <c r="AX16" s="21"/>
-      <c r="AY16" s="21"/>
+      <c r="U16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="21"/>
+      <c r="AW16" s="29"/>
+      <c r="AX16" s="29"/>
+      <c r="AY16" s="29"/>
       <c r="AZ16" s="21"/>
       <c r="BA16" s="21"/>
       <c r="BB16" s="21"/>
@@ -7107,13 +6953,13 @@
     </row>
     <row r="17" spans="1:72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+        <v>127</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -7126,23 +6972,40 @@
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
-      <c r="U17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="AC17" s="12">
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="21"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="12">
         <v>1</v>
       </c>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="14"/>
-      <c r="AM17" s="21"/>
-      <c r="AN17" s="21"/>
-      <c r="AW17" s="29"/>
-      <c r="AX17" s="29"/>
-      <c r="AY17" s="29"/>
-      <c r="AZ17" s="29"/>
-      <c r="BA17" s="29"/>
-      <c r="BB17" s="29"/>
-      <c r="BC17" s="29"/>
-      <c r="BD17" s="29"/>
+      <c r="AW17" s="21"/>
+      <c r="AX17" s="21"/>
+      <c r="AY17" s="21"/>
+      <c r="AZ17" s="21"/>
+      <c r="BA17" s="21"/>
+      <c r="BB17" s="21"/>
+      <c r="BC17" s="21"/>
+      <c r="BD17" s="21"/>
       <c r="BE17" s="21"/>
       <c r="BF17" s="21"/>
       <c r="BG17" s="21"/>
@@ -7160,22 +7023,36 @@
       <c r="BS17" s="21"/>
       <c r="BT17" s="21"/>
     </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
       <c r="U18" s="14"/>
       <c r="Y18" s="14"/>
-      <c r="AC18" s="14"/>
+      <c r="AC18" s="12">
+        <v>1</v>
+      </c>
       <c r="AK18" s="14"/>
       <c r="AL18" s="14"/>
-      <c r="AM18" s="14"/>
-      <c r="AN18" s="14"/>
+      <c r="AM18" s="21"/>
+      <c r="AN18" s="21"/>
       <c r="AW18" s="29"/>
       <c r="AX18" s="29"/>
       <c r="AY18" s="29"/>
@@ -7184,43 +7061,54 @@
       <c r="BB18" s="29"/>
       <c r="BC18" s="29"/>
       <c r="BD18" s="29"/>
+      <c r="BE18" s="21"/>
+      <c r="BF18" s="21"/>
+      <c r="BG18" s="21"/>
+      <c r="BH18" s="21"/>
+      <c r="BI18" s="21"/>
+      <c r="BJ18" s="21"/>
+      <c r="BK18" s="21"/>
+      <c r="BL18" s="21"/>
+      <c r="BM18" s="21"/>
+      <c r="BN18" s="21"/>
+      <c r="BO18" s="21"/>
+      <c r="BP18" s="21"/>
+      <c r="BQ18" s="21"/>
+      <c r="BR18" s="21"/>
+      <c r="BS18" s="21"/>
+      <c r="BT18" s="21"/>
     </row>
     <row r="19" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
       <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AW19" s="29"/>
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="29"/>
+      <c r="AZ19" s="29"/>
+      <c r="BA19" s="29"/>
+      <c r="BB19" s="29"/>
+      <c r="BC19" s="29"/>
+      <c r="BD19" s="29"/>
     </row>
     <row r="20" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -7236,33 +7124,21 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
       <c r="U20" s="14"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
     </row>
     <row r="21" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -7278,14 +7154,14 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
@@ -7298,91 +7174,78 @@
       <c r="AH21" s="14"/>
       <c r="AI21" s="14"/>
       <c r="AJ21" s="14"/>
-      <c r="AW21" s="29"/>
-      <c r="BE21" s="29"/>
-      <c r="BF21" s="29"/>
-      <c r="BG21" s="29"/>
-      <c r="BH21" s="29"/>
-      <c r="BI21" s="29"/>
-      <c r="BJ21" s="29"/>
-      <c r="BK21" s="29"/>
-      <c r="BL21" s="29"/>
-      <c r="BM21" s="29"/>
-      <c r="BN21" s="29"/>
     </row>
     <row r="22" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM22" s="14"/>
-      <c r="AN22" s="12">
-        <v>1</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AW22" s="29"/>
+      <c r="BE22" s="29"/>
+      <c r="BF22" s="29"/>
+      <c r="BG22" s="29"/>
+      <c r="BH22" s="29"/>
+      <c r="BI22" s="29"/>
+      <c r="BJ22" s="29"/>
+      <c r="BK22" s="29"/>
+      <c r="BL22" s="29"/>
+      <c r="BM22" s="29"/>
+      <c r="BN22" s="29"/>
     </row>
     <row r="23" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="12">
+        <v>144</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="12">
         <v>1</v>
       </c>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="14"/>
-      <c r="AI23" s="14"/>
-      <c r="AJ23" s="14"/>
-      <c r="AW23" s="29"/>
-      <c r="BE23" s="29"/>
-      <c r="BF23" s="29"/>
-      <c r="BG23" s="29"/>
-      <c r="BH23" s="29"/>
-      <c r="BI23" s="29"/>
-      <c r="BJ23" s="29"/>
-      <c r="BK23" s="29"/>
-      <c r="BL23" s="29"/>
-      <c r="BM23" s="29"/>
-      <c r="BN23" s="29"/>
     </row>
     <row r="24" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -7410,7 +7273,9 @@
       <c r="Z24" s="14"/>
       <c r="AA24" s="14"/>
       <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
+      <c r="AC24" s="12">
+        <v>1</v>
+      </c>
       <c r="AD24" s="14"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="14"/>
@@ -7418,8 +7283,6 @@
       <c r="AH24" s="14"/>
       <c r="AI24" s="14"/>
       <c r="AJ24" s="14"/>
-      <c r="AM24" s="14"/>
-      <c r="AN24" s="14"/>
       <c r="AW24" s="29"/>
       <c r="BE24" s="29"/>
       <c r="BF24" s="29"/>
@@ -7434,39 +7297,65 @@
     </row>
     <row r="25" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="12">
-        <v>1</v>
-      </c>
-      <c r="D25" s="12">
-        <v>2</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
       <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
       <c r="AC25" s="14"/>
-      <c r="AK25" s="14"/>
-      <c r="AL25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
       <c r="AM25" s="14"/>
       <c r="AN25" s="14"/>
       <c r="AW25" s="29"/>
-      <c r="AX25" s="29"/>
-      <c r="AY25" s="29"/>
-      <c r="AZ25" s="29"/>
-      <c r="BA25" s="29"/>
-      <c r="BB25" s="29"/>
-      <c r="BC25" s="29"/>
-      <c r="BD25" s="29"/>
+      <c r="BE25" s="29"/>
+      <c r="BF25" s="29"/>
+      <c r="BG25" s="29"/>
+      <c r="BH25" s="29"/>
+      <c r="BI25" s="29"/>
+      <c r="BJ25" s="29"/>
+      <c r="BK25" s="29"/>
+      <c r="BL25" s="29"/>
+      <c r="BM25" s="29"/>
+      <c r="BN25" s="29"/>
     </row>
     <row r="26" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="C26" s="12">
         <v>1</v>
@@ -7474,28 +7363,35 @@
       <c r="D26" s="12">
         <v>2</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="14"/>
+      <c r="AM26" s="14"/>
+      <c r="AN26" s="14"/>
+      <c r="AW26" s="29"/>
+      <c r="AX26" s="29"/>
+      <c r="AY26" s="29"/>
+      <c r="AZ26" s="29"/>
+      <c r="BA26" s="29"/>
+      <c r="BB26" s="29"/>
+      <c r="BC26" s="29"/>
+      <c r="BD26" s="29"/>
     </row>
     <row r="27" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+        <v>148</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
+      <c r="D27" s="12">
+        <v>2</v>
+      </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -7508,38 +7404,13 @@
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AK27" s="14"/>
-      <c r="AL27" s="14"/>
-      <c r="AM27" s="14"/>
-      <c r="AN27" s="14"/>
-      <c r="AW27" s="29"/>
-      <c r="AX27" s="29"/>
-      <c r="AY27" s="29"/>
-      <c r="AZ27" s="29"/>
-      <c r="BA27" s="29"/>
-      <c r="BB27" s="29"/>
-      <c r="BC27" s="29"/>
-      <c r="BD27" s="29"/>
-      <c r="BE27" s="29"/>
-      <c r="BF27" s="29"/>
-      <c r="BG27" s="29"/>
-      <c r="BH27" s="29"/>
-      <c r="BI27" s="29"/>
-      <c r="BJ27" s="29"/>
-      <c r="BK27" s="29"/>
-      <c r="BL27" s="29"/>
-      <c r="BM27" s="29"/>
-      <c r="BN27" s="29"/>
     </row>
     <row r="28" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -7555,29 +7426,21 @@
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
       <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
       <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
       <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
-      <c r="AI28" s="14"/>
-      <c r="AJ28" s="14"/>
+      <c r="AK28" s="14"/>
+      <c r="AL28" s="14"/>
       <c r="AM28" s="14"/>
       <c r="AN28" s="14"/>
       <c r="AW28" s="29"/>
+      <c r="AX28" s="29"/>
+      <c r="AY28" s="29"/>
+      <c r="AZ28" s="29"/>
+      <c r="BA28" s="29"/>
+      <c r="BB28" s="29"/>
+      <c r="BC28" s="29"/>
+      <c r="BD28" s="29"/>
       <c r="BE28" s="29"/>
       <c r="BF28" s="29"/>
       <c r="BG28" s="29"/>
@@ -7591,10 +7454,10 @@
     </row>
     <row r="29" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -7610,21 +7473,29 @@
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
       <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
       <c r="AC29" s="14"/>
-      <c r="AK29" s="14"/>
-      <c r="AL29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="14"/>
+      <c r="AI29" s="14"/>
+      <c r="AJ29" s="14"/>
       <c r="AM29" s="14"/>
       <c r="AN29" s="14"/>
       <c r="AW29" s="29"/>
-      <c r="AX29" s="29"/>
-      <c r="AY29" s="29"/>
-      <c r="AZ29" s="29"/>
-      <c r="BA29" s="29"/>
-      <c r="BB29" s="29"/>
-      <c r="BC29" s="29"/>
-      <c r="BD29" s="29"/>
       <c r="BE29" s="29"/>
       <c r="BF29" s="29"/>
       <c r="BG29" s="29"/>
@@ -7638,10 +7509,10 @@
     </row>
     <row r="30" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -7657,26 +7528,9 @@
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
       <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
       <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
-      <c r="AI30" s="14"/>
-      <c r="AJ30" s="14"/>
       <c r="AK30" s="14"/>
       <c r="AL30" s="14"/>
       <c r="AM30" s="14"/>
@@ -7702,10 +7556,10 @@
     </row>
     <row r="31" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -7715,20 +7569,29 @@
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
       <c r="V31" s="14"/>
       <c r="W31" s="14"/>
       <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
       <c r="AB31" s="14"/>
       <c r="AC31" s="14"/>
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
       <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
       <c r="AH31" s="14"/>
       <c r="AI31" s="14"/>
       <c r="AJ31" s="14"/>
@@ -7757,78 +7620,76 @@
     </row>
     <row r="32" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO32" s="12">
+        <v>190</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="14"/>
+      <c r="AL32" s="14"/>
+      <c r="AM32" s="14"/>
+      <c r="AN32" s="14"/>
+      <c r="AW32" s="29"/>
+      <c r="AX32" s="29"/>
+      <c r="AY32" s="29"/>
+      <c r="AZ32" s="29"/>
+      <c r="BA32" s="29"/>
+      <c r="BB32" s="29"/>
+      <c r="BC32" s="29"/>
+      <c r="BD32" s="29"/>
+      <c r="BE32" s="29"/>
+      <c r="BF32" s="29"/>
+      <c r="BG32" s="29"/>
+      <c r="BH32" s="29"/>
+      <c r="BI32" s="29"/>
+      <c r="BJ32" s="29"/>
+      <c r="BK32" s="29"/>
+      <c r="BL32" s="29"/>
+      <c r="BM32" s="29"/>
+      <c r="BN32" s="29"/>
+    </row>
+    <row r="33" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO33" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="Q33" s="12">
-        <v>1</v>
-      </c>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="14"/>
-      <c r="AE33" s="14"/>
-      <c r="AF33" s="14"/>
-      <c r="AH33" s="14"/>
-      <c r="AI33" s="14"/>
-      <c r="AJ33" s="14"/>
-      <c r="AK33" s="14"/>
-      <c r="AL33" s="14"/>
-      <c r="AM33" s="14"/>
-      <c r="AN33" s="14"/>
-      <c r="AW33" s="29"/>
-      <c r="AX33" s="29"/>
-      <c r="AY33" s="29"/>
-      <c r="AZ33" s="29"/>
-      <c r="BA33" s="29"/>
-      <c r="BB33" s="29"/>
-      <c r="BC33" s="29"/>
-      <c r="BD33" s="29"/>
-      <c r="BE33" s="29"/>
-      <c r="BF33" s="29"/>
-      <c r="BG33" s="29"/>
-      <c r="BH33" s="29"/>
-      <c r="BI33" s="29"/>
-      <c r="BJ33" s="29"/>
-      <c r="BK33" s="29"/>
-      <c r="BL33" s="29"/>
-      <c r="BM33" s="29"/>
-      <c r="BN33" s="29"/>
-    </row>
-    <row r="34" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -7841,7 +7702,9 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
-      <c r="Q34" s="14"/>
+      <c r="Q34" s="12">
+        <v>1</v>
+      </c>
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
       <c r="V34" s="14"/>
@@ -7878,255 +7741,249 @@
       <c r="BM34" s="29"/>
       <c r="BN34" s="29"/>
     </row>
-    <row r="35" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C35" s="14"/>
-      <c r="BO35" s="29"/>
-      <c r="BP35" s="29"/>
-      <c r="BQ35" s="29"/>
-    </row>
-    <row r="36" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+      <c r="AH35" s="14"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="14"/>
+      <c r="AK35" s="14"/>
+      <c r="AL35" s="14"/>
+      <c r="AM35" s="14"/>
+      <c r="AN35" s="14"/>
+      <c r="AW35" s="29"/>
+      <c r="AX35" s="29"/>
+      <c r="AY35" s="29"/>
+      <c r="AZ35" s="29"/>
+      <c r="BA35" s="29"/>
+      <c r="BB35" s="29"/>
+      <c r="BC35" s="29"/>
+      <c r="BD35" s="29"/>
+      <c r="BE35" s="29"/>
+      <c r="BF35" s="29"/>
+      <c r="BG35" s="29"/>
+      <c r="BH35" s="29"/>
+      <c r="BI35" s="29"/>
+      <c r="BJ35" s="29"/>
+      <c r="BK35" s="29"/>
+      <c r="BL35" s="29"/>
+      <c r="BM35" s="29"/>
+      <c r="BN35" s="29"/>
+    </row>
+    <row r="36" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C36" s="12">
-        <v>1</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
-      <c r="AB36" s="14"/>
-      <c r="AC36" s="14"/>
-      <c r="AD36" s="14"/>
-      <c r="AE36" s="14"/>
-      <c r="AF36" s="14"/>
-      <c r="AH36" s="14"/>
-      <c r="AI36" s="14"/>
-      <c r="AJ36" s="14"/>
-      <c r="AK36" s="14"/>
-      <c r="AL36" s="14"/>
-      <c r="AM36" s="14"/>
-      <c r="AN36" s="14"/>
-      <c r="AW36" s="29"/>
-      <c r="AX36" s="29"/>
-      <c r="AY36" s="29"/>
-      <c r="AZ36" s="29"/>
-      <c r="BA36" s="29"/>
-      <c r="BB36" s="29"/>
-      <c r="BC36" s="29"/>
-      <c r="BD36" s="29"/>
-      <c r="BE36" s="29"/>
-      <c r="BF36" s="29"/>
-      <c r="BG36" s="29"/>
-      <c r="BH36" s="29"/>
-      <c r="BI36" s="29"/>
-      <c r="BJ36" s="29"/>
-      <c r="BK36" s="29"/>
-      <c r="BL36" s="29"/>
-      <c r="BM36" s="29"/>
-      <c r="BN36" s="29"/>
-    </row>
-    <row r="37" spans="1:72" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="BO36" s="29"/>
+      <c r="BP36" s="29"/>
+      <c r="BQ36" s="29"/>
+    </row>
+    <row r="37" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
       </c>
-      <c r="BO37" s="29"/>
-      <c r="BP37" s="29"/>
-      <c r="BQ37" s="29"/>
-    </row>
-    <row r="38" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="14"/>
+      <c r="AJ37" s="14"/>
+      <c r="AK37" s="14"/>
+      <c r="AL37" s="14"/>
+      <c r="AM37" s="14"/>
+      <c r="AN37" s="14"/>
+      <c r="AW37" s="29"/>
+      <c r="AX37" s="29"/>
+      <c r="AY37" s="29"/>
+      <c r="AZ37" s="29"/>
+      <c r="BA37" s="29"/>
+      <c r="BB37" s="29"/>
+      <c r="BC37" s="29"/>
+      <c r="BD37" s="29"/>
+      <c r="BE37" s="29"/>
+      <c r="BF37" s="29"/>
+      <c r="BG37" s="29"/>
+      <c r="BH37" s="29"/>
+      <c r="BI37" s="29"/>
+      <c r="BJ37" s="29"/>
+      <c r="BK37" s="29"/>
+      <c r="BL37" s="29"/>
+      <c r="BM37" s="29"/>
+      <c r="BN37" s="29"/>
+    </row>
+    <row r="38" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="14"/>
-      <c r="AB38" s="14"/>
-      <c r="AC38" s="14"/>
-      <c r="AD38" s="14"/>
-      <c r="AE38" s="14"/>
-      <c r="AF38" s="14"/>
-      <c r="AH38" s="14"/>
-      <c r="AI38" s="14"/>
-      <c r="AJ38" s="14"/>
-      <c r="AK38" s="14"/>
-      <c r="AL38" s="14"/>
-      <c r="AM38" s="14"/>
-      <c r="AN38" s="14"/>
-      <c r="AW38" s="29"/>
-      <c r="AX38" s="29"/>
-      <c r="AY38" s="29"/>
-      <c r="AZ38" s="29"/>
-      <c r="BA38" s="29"/>
-      <c r="BB38" s="29"/>
-      <c r="BC38" s="29"/>
-      <c r="BD38" s="29"/>
-      <c r="BE38" s="29"/>
-      <c r="BF38" s="29"/>
-      <c r="BG38" s="29"/>
-      <c r="BH38" s="29"/>
-      <c r="BI38" s="29"/>
-      <c r="BJ38" s="29"/>
-      <c r="BK38" s="29"/>
-      <c r="BL38" s="29"/>
-      <c r="BM38" s="29"/>
-      <c r="BN38" s="29"/>
+        <v>166</v>
+      </c>
+      <c r="C38" s="12">
+        <v>1</v>
+      </c>
       <c r="BO38" s="29"/>
       <c r="BP38" s="29"/>
       <c r="BQ38" s="29"/>
-      <c r="BR38" s="29"/>
-      <c r="BS38" s="29"/>
-      <c r="BT38" s="29"/>
-    </row>
-    <row r="39" spans="1:72" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP39" s="29"/>
-      <c r="AQ39" s="29"/>
-      <c r="AW39" s="7"/>
-      <c r="AX39" s="7"/>
-      <c r="AY39" s="7"/>
-      <c r="AZ39" s="7"/>
-      <c r="BA39" s="7"/>
-      <c r="BB39" s="7"/>
-      <c r="BC39" s="7"/>
-      <c r="BD39" s="7"/>
-      <c r="BE39" s="7"/>
-      <c r="BF39" s="7"/>
-      <c r="BG39" s="7"/>
-      <c r="BH39" s="7"/>
-      <c r="BI39" s="7"/>
-      <c r="BJ39" s="7"/>
-      <c r="BK39" s="7"/>
-      <c r="BL39" s="7"/>
-      <c r="BM39" s="7"/>
-      <c r="BN39" s="7"/>
-      <c r="BO39" s="7"/>
-      <c r="BP39" s="7"/>
-      <c r="BQ39" s="7"/>
-      <c r="BR39" s="7"/>
-      <c r="BS39" s="7"/>
-      <c r="BT39" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:72" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="14"/>
+      <c r="AH39" s="14"/>
+      <c r="AI39" s="14"/>
+      <c r="AJ39" s="14"/>
+      <c r="AK39" s="14"/>
+      <c r="AL39" s="14"/>
+      <c r="AM39" s="14"/>
+      <c r="AN39" s="14"/>
+      <c r="AW39" s="29"/>
+      <c r="AX39" s="29"/>
+      <c r="AY39" s="29"/>
+      <c r="AZ39" s="29"/>
+      <c r="BA39" s="29"/>
+      <c r="BB39" s="29"/>
+      <c r="BC39" s="29"/>
+      <c r="BD39" s="29"/>
+      <c r="BE39" s="29"/>
+      <c r="BF39" s="29"/>
+      <c r="BG39" s="29"/>
+      <c r="BH39" s="29"/>
+      <c r="BI39" s="29"/>
+      <c r="BJ39" s="29"/>
+      <c r="BK39" s="29"/>
+      <c r="BL39" s="29"/>
+      <c r="BM39" s="29"/>
+      <c r="BN39" s="29"/>
+      <c r="BO39" s="29"/>
+      <c r="BP39" s="29"/>
+      <c r="BQ39" s="29"/>
+      <c r="BR39" s="29"/>
+      <c r="BS39" s="29"/>
+      <c r="BT39" s="29"/>
+      <c r="BU39" s="29"/>
+      <c r="BV39" s="29"/>
+    </row>
+    <row r="40" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="14"/>
-      <c r="AB40" s="14"/>
-      <c r="AC40" s="14"/>
-      <c r="AD40" s="14"/>
-      <c r="AE40" s="14"/>
-      <c r="AF40" s="14"/>
-      <c r="AH40" s="14"/>
-      <c r="AI40" s="14"/>
-      <c r="AJ40" s="14"/>
-      <c r="AK40" s="14"/>
-      <c r="AL40" s="14"/>
-      <c r="AM40" s="14"/>
-      <c r="AN40" s="14"/>
-      <c r="AW40" s="29"/>
-      <c r="AX40" s="29"/>
-      <c r="AY40" s="29"/>
-      <c r="AZ40" s="29"/>
-      <c r="BA40" s="29"/>
-      <c r="BB40" s="29"/>
-      <c r="BC40" s="29"/>
-      <c r="BD40" s="29"/>
-      <c r="BE40" s="29"/>
-      <c r="BF40" s="29"/>
-      <c r="BG40" s="29"/>
-      <c r="BH40" s="29"/>
-      <c r="BI40" s="29"/>
-      <c r="BJ40" s="29"/>
-      <c r="BK40" s="29"/>
-      <c r="BL40" s="29"/>
-      <c r="BM40" s="29"/>
-      <c r="BN40" s="29"/>
-      <c r="BO40" s="29"/>
-      <c r="BP40" s="29"/>
-      <c r="BQ40" s="29"/>
-      <c r="BR40" s="29"/>
-      <c r="BS40" s="29"/>
+        <v>176</v>
+      </c>
+      <c r="AP40" s="29"/>
+      <c r="AQ40" s="29"/>
+      <c r="AW40" s="7"/>
+      <c r="AX40" s="7"/>
+      <c r="AY40" s="7"/>
+      <c r="AZ40" s="7"/>
+      <c r="BA40" s="7"/>
+      <c r="BB40" s="7"/>
+      <c r="BC40" s="7"/>
+      <c r="BD40" s="7"/>
+      <c r="BE40" s="7"/>
+      <c r="BF40" s="7"/>
+      <c r="BG40" s="7"/>
+      <c r="BH40" s="7"/>
+      <c r="BI40" s="7"/>
+      <c r="BJ40" s="7"/>
+      <c r="BK40" s="7"/>
+      <c r="BL40" s="7"/>
+      <c r="BM40" s="7"/>
+      <c r="BN40" s="7"/>
+      <c r="BO40" s="7"/>
+      <c r="BP40" s="7"/>
+      <c r="BQ40" s="7"/>
+      <c r="BR40" s="7"/>
+      <c r="BS40" s="7"/>
       <c r="BT40" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
@@ -8157,8 +8014,6 @@
       <c r="AL41" s="14"/>
       <c r="AM41" s="14"/>
       <c r="AN41" s="14"/>
-      <c r="AP41" s="29"/>
-      <c r="AQ41" s="29"/>
       <c r="AW41" s="29"/>
       <c r="AX41" s="29"/>
       <c r="AY41" s="29"/>
@@ -8182,156 +8037,160 @@
       <c r="BQ41" s="29"/>
       <c r="BR41" s="29"/>
       <c r="BS41" s="29"/>
-      <c r="BT41" s="29"/>
-    </row>
-    <row r="42" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="BT41" s="12">
+        <v>1</v>
+      </c>
+      <c r="BU41" s="29"/>
+      <c r="BV41" s="29"/>
+    </row>
+    <row r="42" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="7"/>
-      <c r="AB42" s="7"/>
-      <c r="AC42" s="7"/>
-      <c r="AD42" s="7"/>
-      <c r="AE42" s="7"/>
-      <c r="AF42" s="7"/>
-      <c r="AG42" s="7"/>
-      <c r="AH42" s="7"/>
-      <c r="AI42" s="7"/>
-      <c r="AJ42" s="7"/>
-      <c r="AK42" s="7"/>
-      <c r="AL42" s="7"/>
-      <c r="AM42" s="12">
-        <v>1</v>
-      </c>
-      <c r="AN42" s="7"/>
-      <c r="AR42" s="29"/>
-      <c r="AS42" s="29"/>
-      <c r="AT42" s="29"/>
-      <c r="AU42" s="29"/>
-      <c r="AV42" s="29"/>
-      <c r="AW42" s="7"/>
-      <c r="AX42" s="7"/>
-      <c r="AY42" s="7"/>
-      <c r="AZ42" s="7"/>
-      <c r="BA42" s="7"/>
-      <c r="BB42" s="7"/>
-      <c r="BC42" s="7"/>
-      <c r="BD42" s="7"/>
-      <c r="BE42" s="7"/>
-      <c r="BF42" s="7"/>
-      <c r="BG42" s="7"/>
-      <c r="BH42" s="7"/>
-      <c r="BI42" s="7"/>
-      <c r="BJ42" s="7"/>
-      <c r="BK42" s="7"/>
-      <c r="BL42" s="7"/>
-      <c r="BM42" s="7"/>
-      <c r="BN42" s="7"/>
-      <c r="BO42" s="7"/>
-      <c r="BP42" s="7"/>
-      <c r="BQ42" s="7"/>
-      <c r="BR42" s="7"/>
-      <c r="BS42" s="7"/>
-      <c r="BT42" s="7"/>
-    </row>
-    <row r="43" spans="1:72" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="14"/>
+      <c r="AH42" s="14"/>
+      <c r="AI42" s="14"/>
+      <c r="AJ42" s="14"/>
+      <c r="AK42" s="14"/>
+      <c r="AL42" s="14"/>
+      <c r="AM42" s="14"/>
+      <c r="AN42" s="14"/>
+      <c r="AP42" s="29"/>
+      <c r="AQ42" s="29"/>
+      <c r="AW42" s="29"/>
+      <c r="AX42" s="29"/>
+      <c r="AY42" s="29"/>
+      <c r="AZ42" s="29"/>
+      <c r="BA42" s="29"/>
+      <c r="BB42" s="29"/>
+      <c r="BC42" s="29"/>
+      <c r="BD42" s="29"/>
+      <c r="BE42" s="29"/>
+      <c r="BF42" s="29"/>
+      <c r="BG42" s="29"/>
+      <c r="BH42" s="29"/>
+      <c r="BI42" s="29"/>
+      <c r="BJ42" s="29"/>
+      <c r="BK42" s="29"/>
+      <c r="BL42" s="29"/>
+      <c r="BM42" s="29"/>
+      <c r="BN42" s="29"/>
+      <c r="BO42" s="29"/>
+      <c r="BP42" s="29"/>
+      <c r="BQ42" s="29"/>
+      <c r="BR42" s="29"/>
+      <c r="BS42" s="29"/>
+      <c r="BT42" s="29"/>
+      <c r="BU42" s="29"/>
+      <c r="BV42" s="29"/>
+    </row>
+    <row r="43" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="14"/>
-      <c r="AB43" s="14"/>
-      <c r="AC43" s="14"/>
-      <c r="AD43" s="14"/>
-      <c r="AE43" s="14"/>
-      <c r="AF43" s="14"/>
-      <c r="AH43" s="14"/>
-      <c r="AI43" s="14"/>
-      <c r="AJ43" s="14"/>
-      <c r="AK43" s="14"/>
-      <c r="AL43" s="14"/>
+        <v>184</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="7"/>
+      <c r="AI43" s="7"/>
+      <c r="AJ43" s="7"/>
+      <c r="AK43" s="7"/>
+      <c r="AL43" s="7"/>
       <c r="AM43" s="12">
         <v>1</v>
       </c>
-      <c r="AN43" s="14"/>
-      <c r="AP43" s="29"/>
-      <c r="AQ43" s="29"/>
-      <c r="AW43" s="29"/>
-      <c r="AX43" s="29"/>
-      <c r="AY43" s="29"/>
-      <c r="AZ43" s="29"/>
-      <c r="BA43" s="29"/>
-      <c r="BB43" s="29"/>
-      <c r="BC43" s="29"/>
-      <c r="BD43" s="29"/>
-      <c r="BE43" s="29"/>
-      <c r="BF43" s="29"/>
-      <c r="BG43" s="29"/>
-      <c r="BH43" s="29"/>
-      <c r="BI43" s="29"/>
-      <c r="BJ43" s="29"/>
-      <c r="BK43" s="29"/>
-      <c r="BL43" s="29"/>
-      <c r="BM43" s="29"/>
-      <c r="BN43" s="29"/>
-      <c r="BO43" s="29"/>
-      <c r="BP43" s="29"/>
-      <c r="BQ43" s="29"/>
-      <c r="BR43" s="29"/>
-      <c r="BS43" s="29"/>
-      <c r="BT43" s="29"/>
-    </row>
-    <row r="44" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="AN43" s="7"/>
+      <c r="AR43" s="29"/>
+      <c r="AS43" s="29"/>
+      <c r="AT43" s="29"/>
+      <c r="AU43" s="29"/>
+      <c r="AV43" s="29"/>
+      <c r="AW43" s="7"/>
+      <c r="AX43" s="7"/>
+      <c r="AY43" s="7"/>
+      <c r="AZ43" s="7"/>
+      <c r="BA43" s="7"/>
+      <c r="BB43" s="7"/>
+      <c r="BC43" s="7"/>
+      <c r="BD43" s="7"/>
+      <c r="BE43" s="7"/>
+      <c r="BF43" s="7"/>
+      <c r="BG43" s="7"/>
+      <c r="BH43" s="7"/>
+      <c r="BI43" s="7"/>
+      <c r="BJ43" s="7"/>
+      <c r="BK43" s="7"/>
+      <c r="BL43" s="7"/>
+      <c r="BM43" s="7"/>
+      <c r="BN43" s="7"/>
+      <c r="BO43" s="7"/>
+      <c r="BP43" s="7"/>
+      <c r="BQ43" s="7"/>
+      <c r="BR43" s="7"/>
+      <c r="BS43" s="7"/>
+      <c r="BT43" s="7"/>
+    </row>
+    <row r="44" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
@@ -8360,15 +8219,12 @@
       <c r="AJ44" s="14"/>
       <c r="AK44" s="14"/>
       <c r="AL44" s="14"/>
-      <c r="AM44" s="14"/>
+      <c r="AM44" s="12">
+        <v>1</v>
+      </c>
       <c r="AN44" s="14"/>
       <c r="AP44" s="29"/>
       <c r="AQ44" s="29"/>
-      <c r="AR44" s="29"/>
-      <c r="AS44" s="29"/>
-      <c r="AT44" s="29"/>
-      <c r="AU44" s="29"/>
-      <c r="AV44" s="29"/>
       <c r="AW44" s="29"/>
       <c r="AX44" s="29"/>
       <c r="AY44" s="29"/>
@@ -8393,8 +8249,83 @@
       <c r="BR44" s="29"/>
       <c r="BS44" s="29"/>
       <c r="BT44" s="29"/>
+      <c r="BU44" s="29"/>
+      <c r="BV44" s="29"/>
+    </row>
+    <row r="45" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="AB45" s="14"/>
+      <c r="AC45" s="14"/>
+      <c r="AD45" s="14"/>
+      <c r="AE45" s="14"/>
+      <c r="AF45" s="14"/>
+      <c r="AH45" s="14"/>
+      <c r="AI45" s="14"/>
+      <c r="AJ45" s="14"/>
+      <c r="AK45" s="14"/>
+      <c r="AL45" s="14"/>
+      <c r="AM45" s="14"/>
+      <c r="AN45" s="14"/>
+      <c r="AP45" s="29"/>
+      <c r="AQ45" s="29"/>
+      <c r="AR45" s="29"/>
+      <c r="AS45" s="29"/>
+      <c r="AT45" s="29"/>
+      <c r="AU45" s="29"/>
+      <c r="AV45" s="29"/>
+      <c r="AW45" s="29"/>
+      <c r="AX45" s="29"/>
+      <c r="AY45" s="29"/>
+      <c r="AZ45" s="29"/>
+      <c r="BA45" s="29"/>
+      <c r="BB45" s="29"/>
+      <c r="BC45" s="29"/>
+      <c r="BD45" s="29"/>
+      <c r="BE45" s="29"/>
+      <c r="BF45" s="29"/>
+      <c r="BG45" s="29"/>
+      <c r="BH45" s="29"/>
+      <c r="BI45" s="29"/>
+      <c r="BJ45" s="29"/>
+      <c r="BK45" s="29"/>
+      <c r="BL45" s="29"/>
+      <c r="BM45" s="29"/>
+      <c r="BN45" s="29"/>
+      <c r="BO45" s="29"/>
+      <c r="BP45" s="29"/>
+      <c r="BQ45" s="29"/>
+      <c r="BR45" s="29"/>
+      <c r="BS45" s="29"/>
+      <c r="BT45" s="29"/>
+      <c r="BU45" s="29"/>
+      <c r="BV45" s="29"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/thesis/Chapters/01Database.xlsx
+++ b/thesis/Chapters/01Database.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Additional_idea_SQL" sheetId="2" r:id="rId2"/>
     <sheet name="Additional_idea_R" sheetId="3" r:id="rId3"/>
+    <sheet name="Other_data_SQL" sheetId="4" r:id="rId4"/>
+    <sheet name="Other_data_R" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -796,7 +798,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="251">
   <si>
     <t>city</t>
   </si>
@@ -1402,12 +1404,183 @@
   <si>
     <t>Disease group (Dr. Tillu)</t>
   </si>
+  <si>
+    <t xml:space="preserve">patient_section_details </t>
+  </si>
+  <si>
+    <t>section_id</t>
+  </si>
+  <si>
+    <t>section_detail_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_type  </t>
+  </si>
+  <si>
+    <t>field_id</t>
+  </si>
+  <si>
+    <t>option_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">option_remarks </t>
+  </si>
+  <si>
+    <t>base10_other11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section_master </t>
+  </si>
+  <si>
+    <t xml:space="preserve">section_field_options </t>
+  </si>
+  <si>
+    <t xml:space="preserve">section_field_desc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient_consultation_field_values </t>
+  </si>
+  <si>
+    <t>base10_other11 (subset, non missing values)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base01_other02 </t>
+  </si>
+  <si>
+    <t>section_field_options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base01_other022 </t>
+  </si>
+  <si>
+    <t>section_title</t>
+  </si>
+  <si>
+    <t>allow_all_normal</t>
+  </si>
+  <si>
+    <t>linked_to</t>
+  </si>
+  <si>
+    <t>section_mandatory</t>
+  </si>
+  <si>
+    <t>display_order</t>
+  </si>
+  <si>
+    <t>option_value</t>
+  </si>
+  <si>
+    <t>value_code</t>
+  </si>
+  <si>
+    <t>phrase_category_id</t>
+  </si>
+  <si>
+    <t>pattern_id</t>
+  </si>
+  <si>
+    <t>old_option_id</t>
+  </si>
+  <si>
+    <t>field_name</t>
+  </si>
+  <si>
+    <t>field_type</t>
+  </si>
+  <si>
+    <t>allow_others</t>
+  </si>
+  <si>
+    <t>allow_normal</t>
+  </si>
+  <si>
+    <t>normal_text</t>
+  </si>
+  <si>
+    <t>no_of_lines</t>
+  </si>
+  <si>
+    <t>observation_type</t>
+  </si>
+  <si>
+    <t>observation_code</t>
+  </si>
+  <si>
+    <t>file_content</t>
+  </si>
+  <si>
+    <t>content_type</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>markers</t>
+  </si>
+  <si>
+    <t>is_mandatory</t>
+  </si>
+  <si>
+    <t>use_in_presenting_complaint</t>
+  </si>
+  <si>
+    <t>section_master (only a few variables)</t>
+  </si>
+  <si>
+    <t>section_field_desc (only a few variables)</t>
+  </si>
+  <si>
+    <t>base01_other02 [option_id &lt; 0]</t>
+  </si>
+  <si>
+    <t>base01_other02 (step 3) [option_id &gt;= 0]</t>
+  </si>
+  <si>
+    <t>base01_other044</t>
+  </si>
+  <si>
+    <t>base01_other022 (step 3)</t>
+  </si>
+  <si>
+    <t>base01_other044 (step 4)</t>
+  </si>
+  <si>
+    <t>base01_all (Append the datasets)</t>
+  </si>
+  <si>
+    <t>subvis</t>
+  </si>
+  <si>
+    <t>subpat (Subset of all_met_rmsd)</t>
+  </si>
+  <si>
+    <t>vispat (Subset of all_met_rmsd)</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>distype</t>
+  </si>
+  <si>
+    <t>all_ip</t>
+  </si>
+  <si>
+    <t>all_op</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base01_met_rmsd </t>
+  </si>
+  <si>
+    <t>base01_met_rmsd Transposed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1450,6 +1623,30 @@
       <color rgb="FF24292E"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1548,7 +1745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1625,10 +1822,36 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3270,7 +3493,7 @@
   </sheetPr>
   <dimension ref="A1:BO49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3487,7 +3710,7 @@
       </c>
     </row>
     <row r="2" spans="1:67" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3560,7 +3783,7 @@
       <c r="BO2" s="7"/>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3633,7 +3856,7 @@
       <c r="BO3" s="7"/>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -3706,7 +3929,7 @@
       <c r="BO4" s="7"/>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3779,7 +4002,7 @@
       <c r="BO5" s="7"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3852,7 +4075,7 @@
       <c r="BO6" s="7"/>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3925,7 +4148,7 @@
       <c r="BO7" s="7"/>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="A8" s="31">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -3998,7 +4221,7 @@
       <c r="BO8" s="7"/>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="A9" s="31">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -4071,7 +4294,7 @@
       <c r="BO9" s="7"/>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -4144,7 +4367,7 @@
       <c r="BO10" s="7"/>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="A11" s="31">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4217,7 +4440,7 @@
       <c r="BO11" s="7"/>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -4290,7 +4513,7 @@
       <c r="BO12" s="7"/>
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="A13" s="31">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -4363,7 +4586,7 @@
       <c r="BO13" s="7"/>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+      <c r="A14" s="31">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -6155,7 +6378,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BX1" sqref="BX1"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6393,7 +6616,7 @@
       </c>
     </row>
     <row r="3" spans="1:74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>187</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -6423,7 +6646,7 @@
       <c r="X3" s="14"/>
     </row>
     <row r="4" spans="1:74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="4" t="s">
         <v>189</v>
       </c>
@@ -6456,7 +6679,7 @@
       <c r="AJ4" s="14"/>
     </row>
     <row r="5" spans="1:74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="7" t="s">
         <v>135</v>
       </c>
@@ -6481,7 +6704,7 @@
       <c r="AL5" s="14"/>
     </row>
     <row r="6" spans="1:74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="7" t="s">
         <v>123</v>
       </c>
@@ -6501,7 +6724,7 @@
       <c r="P6" s="14"/>
     </row>
     <row r="7" spans="1:74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="7" t="s">
         <v>61</v>
       </c>
@@ -6523,7 +6746,7 @@
       <c r="AN7" s="14"/>
     </row>
     <row r="8" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="7" t="s">
         <v>60</v>
       </c>
@@ -6591,7 +6814,7 @@
       <c r="BT8" s="7"/>
     </row>
     <row r="9" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="7" t="s">
         <v>193</v>
       </c>
@@ -6660,7 +6883,7 @@
       <c r="BT9" s="7"/>
     </row>
     <row r="10" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="7" t="s">
         <v>172</v>
       </c>
@@ -6731,7 +6954,7 @@
       <c r="BT10" s="29"/>
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="7" t="s">
         <v>178</v>
       </c>
@@ -8329,4 +8552,917 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AL1" sqref="AL1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="28" width="2.88671875" style="36" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="2.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="32" max="36" width="2.88671875" style="36" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.88671875" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" s="36" customFormat="1" ht="107.4" x14ac:dyDescent="0.25">
+      <c r="B1" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+    </row>
+    <row r="3" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+    </row>
+    <row r="4" spans="1:36" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+    </row>
+    <row r="5" spans="1:36" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42"/>
+    </row>
+    <row r="6" spans="1:36" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="40"/>
+    </row>
+    <row r="7" spans="1:36" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+    </row>
+    <row r="9" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="44">
+        <v>1</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+    </row>
+    <row r="10" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="44">
+        <v>1</v>
+      </c>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+    </row>
+    <row r="11" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+    </row>
+    <row r="12" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="44">
+        <v>1</v>
+      </c>
+      <c r="L12" s="40"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+    </row>
+    <row r="13" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="44">
+        <v>1</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+    </row>
+    <row r="14" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="39"/>
+    </row>
+    <row r="15" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="I15" s="44">
+        <v>1</v>
+      </c>
+      <c r="J15" s="44">
+        <v>2</v>
+      </c>
+      <c r="O15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+    </row>
+    <row r="16" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="44">
+        <v>1</v>
+      </c>
+      <c r="J16" s="44">
+        <v>2</v>
+      </c>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="39"/>
+    </row>
+    <row r="17" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="39"/>
+    </row>
+    <row r="18" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="E18" s="44">
+        <v>1</v>
+      </c>
+      <c r="I18" s="44">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+    </row>
+    <row r="19" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="44">
+        <v>1</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="44">
+        <v>2</v>
+      </c>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="39"/>
+    </row>
+    <row r="20" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+    </row>
+    <row r="21" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+    </row>
+    <row r="22" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+    </row>
+    <row r="23" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:X1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="33"/>
+    <col min="2" max="2" width="37.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="25" width="3.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="26" max="43" width="2.5546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="8.88671875" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" ht="68.400000000000006" x14ac:dyDescent="0.25">
+      <c r="B1" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y1" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z1" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK1" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL1" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM1" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="AN1" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP1" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="AQ1" s="28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="34"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B3" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="34"/>
+      <c r="AQ4" s="34"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="34"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>